--- a/NformTester/NformTester/Keywordscripts/600.30.20.60_MoveDeviceFromNavigationViewTreetoAvailableDevices.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.20.60_MoveDeviceFromNavigationViewTreetoAvailableDevices.xlsx
@@ -4450,8 +4450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/Keywordscripts/600.30.20.60_MoveDeviceFromNavigationViewTreetoAvailableDevices.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.20.60_MoveDeviceFromNavigationViewTreetoAvailableDevices.xlsx
@@ -3876,11 +3876,11 @@
     <t>;</t>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
+    <t>C</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
+    <t>$NAME_SearchStart_0$</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4450,8 +4450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4822,7 +4822,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -5061,7 +5061,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>800</v>
@@ -5091,7 +5091,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>800</v>
